--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F40D29-04ED-49FE-87B1-0F587633C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CB8ED-76D4-49E1-B1F8-D02CE6588851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>APPLICATION DE LA MISSION DONNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFECTION DE COLIS </t>
   </si>
   <si>
     <r>
@@ -1038,15 +1035,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,30 +1099,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,7 +1446,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="79" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1463,56 +1460,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1524,22 +1521,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1562,8 +1559,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="20" t="s">
         <v>35</v>
       </c>
@@ -1619,16 +1616,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2144,16 +2141,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2518,16 +2515,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2667,9 +2664,7 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -2986,11 +2981,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2998,6 +2988,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB18EE-5479-4E48-A965-93783FB7C811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983447BD-6AF4-4B30-AF1C-201BD1A42DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,15 +1124,111 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,42 +1253,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,66 +1260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,72 +1606,72 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="84" zoomScaleNormal="22" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="31" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="31" customWidth="1"/>
-    <col min="9" max="43" width="11.5546875" style="30" customWidth="1"/>
-    <col min="44" max="16384" width="10.77734375" style="31"/>
+    <col min="1" max="1" width="70.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="20" customWidth="1"/>
+    <col min="4" max="8" width="18.6640625" style="20" customWidth="1"/>
+    <col min="9" max="43" width="11.5546875" style="19" customWidth="1"/>
+    <col min="44" max="16384" width="10.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1682,22 +1682,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1719,9 +1719,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="44" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="28"/>
+    <row r="7" spans="1:43" s="22" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1740,94 +1740,94 @@
       <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-    </row>
-    <row r="8" spans="1:43" s="44" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+    </row>
+    <row r="8" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-    </row>
-    <row r="9" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+    </row>
+    <row r="9" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="18">
         <v>2022</v>
       </c>
       <c r="C9" s="4"/>
@@ -1838,47 +1838,47 @@
       <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-    </row>
-    <row r="10" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+    </row>
+    <row r="10" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="18">
         <v>2021</v>
       </c>
       <c r="C10" s="5"/>
@@ -1891,47 +1891,47 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-    </row>
-    <row r="11" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+    </row>
+    <row r="11" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="18">
         <v>2022</v>
       </c>
       <c r="C11" s="5"/>
@@ -1942,47 +1942,47 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-    </row>
-    <row r="12" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+    </row>
+    <row r="12" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="18">
         <v>2021</v>
       </c>
       <c r="C12" s="5"/>
@@ -1993,47 +1993,47 @@
       <c r="H12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-    </row>
-    <row r="13" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+    </row>
+    <row r="13" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="18">
         <v>2022</v>
       </c>
       <c r="C13" s="5"/>
@@ -2044,47 +2044,47 @@
         <v>18</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-    </row>
-    <row r="14" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+    </row>
+    <row r="14" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="18">
         <v>2022</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2097,184 +2097,184 @@
         <v>18</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-    </row>
-    <row r="15" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+    </row>
+    <row r="15" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-    </row>
-    <row r="16" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+    </row>
+    <row r="16" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-    </row>
-    <row r="17" spans="1:43" s="44" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+    </row>
+    <row r="17" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-    </row>
-    <row r="18" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+    </row>
+    <row r="18" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="18">
         <v>2021</v>
       </c>
       <c r="C18" s="5"/>
@@ -2285,303 +2285,303 @@
         <v>18</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-    </row>
-    <row r="19" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+    </row>
+    <row r="19" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="28">
         <v>2021</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="51" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-    </row>
-    <row r="20" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+    </row>
+    <row r="20" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="37">
         <v>2021</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
     </row>
     <row r="21" spans="1:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-    </row>
-    <row r="22" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-    </row>
-    <row r="23" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+    </row>
+    <row r="23" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-    </row>
-    <row r="24" spans="1:43" s="44" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+    </row>
+    <row r="24" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-    </row>
-    <row r="25" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+    </row>
+    <row r="25" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="29">
-        <v>2022</v>
+      <c r="B25" s="18">
+        <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>27</v>
@@ -2593,48 +2593,48 @@
         <v>18</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-    </row>
-    <row r="26" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+    </row>
+    <row r="26" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="29">
-        <v>2022</v>
+      <c r="B26" s="18">
+        <v>2023</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>18</v>
@@ -2646,48 +2646,48 @@
         <v>18</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-    </row>
-    <row r="27" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+    </row>
+    <row r="27" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="29">
-        <v>2022</v>
+      <c r="B27" s="18">
+        <v>2023</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2697,48 +2697,48 @@
       <c r="H27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-    </row>
-    <row r="28" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+    </row>
+    <row r="28" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="29">
-        <v>2022</v>
+      <c r="B28" s="18">
+        <v>2023</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>18</v>
@@ -2748,275 +2748,270 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-    </row>
-    <row r="29" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+    </row>
+    <row r="29" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-    </row>
-    <row r="30" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+    </row>
+    <row r="30" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-    </row>
-    <row r="31" spans="1:43" s="44" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+    </row>
+    <row r="31" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-    </row>
-    <row r="32" spans="1:43" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+    </row>
+    <row r="32" spans="1:43" s="22" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-    </row>
-    <row r="33" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+    </row>
+    <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3024,6 +3019,11 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983447BD-6AF4-4B30-AF1C-201BD1A42DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233B361-FEA2-4D72-A9E5-F5FE803E2624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,39 +1196,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1236,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,8 +1606,8 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="84" zoomScaleNormal="22" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1621,56 +1621,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="63"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
@@ -1682,22 +1682,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="22" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1777,16 +1777,16 @@
       <c r="AQ7" s="19"/>
     </row>
     <row r="8" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -2224,16 +2224,16 @@
       <c r="AQ16" s="19"/>
     </row>
     <row r="17" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2530,16 +2530,16 @@
       <c r="AQ23" s="19"/>
     </row>
     <row r="24" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -3012,6 +3012,11 @@
     <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3019,11 +3024,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233B361-FEA2-4D72-A9E5-F5FE803E2624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF2F7A-65F3-4FE6-B1C2-4FA4E924D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,15 +1196,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,30 +1260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,8 +1606,8 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="22" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="22" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1621,56 +1621,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="63"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
@@ -1682,22 +1682,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="59" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="22" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
@@ -1777,16 +1777,16 @@
       <c r="AQ7" s="19"/>
     </row>
     <row r="8" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -2224,16 +2224,16 @@
       <c r="AQ16" s="19"/>
     </row>
     <row r="17" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2530,16 +2530,16 @@
       <c r="AQ23" s="19"/>
     </row>
     <row r="24" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -3012,11 +3012,6 @@
     <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3024,6 +3019,11 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF2F7A-65F3-4FE6-B1C2-4FA4E924D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F566B854-4AE3-45C0-8137-675A534698E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Option :</t>
-  </si>
-  <si>
-    <t>▢ SISR</t>
   </si>
   <si>
     <t>▢ SLAM</t>
@@ -425,6 +422,9 @@
     </r>
   </si>
   <si>
+    <t>INSTALTION DE GLPI</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -459,7 +459,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>▸Déployer un service</t>
+      <t>▸Déployer u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n service</t>
     </r>
     <r>
       <rPr>
@@ -479,6 +488,9 @@
       </rPr>
       <t>▸Accompagner les utilisateurs dans la mise en place d’un service</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> SISR</t>
   </si>
 </sst>
 </file>
@@ -1196,39 +1208,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1248,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,13 +1613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="22" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1621,84 +1633,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="63"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1720,25 +1732,25 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="22" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -1777,16 +1789,16 @@
       <c r="AQ7" s="19"/>
     </row>
     <row r="8" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="A8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="9" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="18">
         <v>2022</v>
@@ -1836,7 +1848,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -1876,18 +1888,18 @@
     </row>
     <row r="10" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="18">
         <v>2021</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="11" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="18">
         <v>2022</v>
@@ -1937,7 +1949,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="12" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="18">
         <v>2021</v>
@@ -1991,7 +2003,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="13" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="18">
         <v>2022</v>
@@ -2041,7 +2053,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="19"/>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="14" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="18">
         <v>2022</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="19"/>
@@ -2134,13 +2146,21 @@
       <c r="AQ14" s="19"/>
     </row>
     <row r="15" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -2224,16 +2244,16 @@
       <c r="AQ16" s="19"/>
     </row>
     <row r="17" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="A17" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2272,7 +2292,7 @@
     </row>
     <row r="18" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="18">
         <v>2021</v>
@@ -2282,7 +2302,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="19"/>
@@ -2323,18 +2343,18 @@
     </row>
     <row r="19" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="28">
         <v>2021</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
@@ -2376,21 +2396,21 @@
     </row>
     <row r="20" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="37">
         <v>2021</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="19"/>
@@ -2530,16 +2550,16 @@
       <c r="AQ23" s="19"/>
     </row>
     <row r="24" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="A24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -2578,19 +2598,19 @@
     </row>
     <row r="25" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="18">
         <v>2023</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="19"/>
@@ -2631,19 +2651,19 @@
     </row>
     <row r="26" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="18">
         <v>2023</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="19"/>
@@ -2684,7 +2704,7 @@
     </row>
     <row r="27" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="18">
         <v>2023</v>
@@ -2695,7 +2715,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
@@ -2735,13 +2755,13 @@
     </row>
     <row r="28" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="18">
         <v>2023</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3012,6 +3032,11 @@
     <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3019,11 +3044,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F566B854-4AE3-45C0-8137-675A534698E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F2AE6F-A6FC-49AA-8349-0CB4ED8E4023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Option :</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -973,36 +970,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
@@ -1078,6 +1049,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1109,9 +1104,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1163,7 +1155,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,36 +1168,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,9 +1233,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1241,37 +1257,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,98 +1614,96 @@
   <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="20" customWidth="1"/>
-    <col min="4" max="8" width="18.6640625" style="20" customWidth="1"/>
-    <col min="9" max="43" width="11.5546875" style="19" customWidth="1"/>
-    <col min="44" max="16384" width="10.77734375" style="20"/>
+    <col min="1" max="1" width="70.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="19" customWidth="1"/>
+    <col min="4" max="8" width="18.6640625" style="19" customWidth="1"/>
+    <col min="9" max="43" width="11.5546875" style="18" customWidth="1"/>
+    <col min="44" max="16384" width="10.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="49"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="63"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="B6" s="58" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -1731,115 +1724,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="22" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
+    <row r="7" spans="1:43" s="21" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-    </row>
-    <row r="8" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-    </row>
-    <row r="9" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+    </row>
+    <row r="8" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+    </row>
+    <row r="9" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17">
         <v>2022</v>
       </c>
       <c r="C9" s="4"/>
@@ -1847,866 +1840,866 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-    </row>
-    <row r="10" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+    </row>
+    <row r="10" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="17">
         <v>2021</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="12" t="s">
-        <v>17</v>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="15" t="s">
-        <v>17</v>
+      <c r="F10" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-    </row>
-    <row r="11" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+    </row>
+    <row r="11" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="17">
         <v>2022</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-    </row>
-    <row r="12" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+    </row>
+    <row r="12" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="17">
         <v>2021</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-    </row>
-    <row r="13" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="H12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+    </row>
+    <row r="13" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17">
         <v>2022</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="12" t="s">
-        <v>17</v>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-    </row>
-    <row r="14" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+    </row>
+    <row r="14" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17">
         <v>2022</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="12" t="s">
-        <v>17</v>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-    </row>
-    <row r="15" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+    </row>
+    <row r="15" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
-        <v>17</v>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-    </row>
-    <row r="16" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+    </row>
+    <row r="16" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-    </row>
-    <row r="17" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-    </row>
-    <row r="18" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+    </row>
+    <row r="17" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+    </row>
+    <row r="18" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="17">
         <v>2021</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-    </row>
-    <row r="19" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+    </row>
+    <row r="19" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="27">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+    </row>
+    <row r="20" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B20" s="36">
         <v>2021</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-    </row>
-    <row r="20" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="37">
-        <v>2021</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
     </row>
     <row r="21" spans="1:43" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-    </row>
-    <row r="23" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+    </row>
+    <row r="23" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-    </row>
-    <row r="24" spans="1:43" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
-    </row>
-    <row r="25" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="18">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+    </row>
+    <row r="24" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+    </row>
+    <row r="25" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>26</v>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="12" t="s">
-        <v>17</v>
+      <c r="G25" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-    </row>
-    <row r="26" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="18">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+    </row>
+    <row r="26" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="17">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>17</v>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="12" t="s">
-        <v>17</v>
+      <c r="G26" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
-    </row>
-    <row r="27" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="18">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+    </row>
+    <row r="27" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="17">
         <v>2023</v>
       </c>
       <c r="C27" s="5"/>
@@ -2714,329 +2707,324 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
-    </row>
-    <row r="28" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="18">
+      <c r="H27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+    </row>
+    <row r="28" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="17">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>17</v>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-    </row>
-    <row r="29" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+    </row>
+    <row r="29" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
-    </row>
-    <row r="30" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+    </row>
+    <row r="30" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="19"/>
-      <c r="AQ30" s="19"/>
-    </row>
-    <row r="31" spans="1:43" s="22" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+    </row>
+    <row r="31" spans="1:43" s="21" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-    </row>
-    <row r="32" spans="1:43" s="22" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-    </row>
-    <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+    </row>
+    <row r="32" spans="1:43" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+    </row>
+    <row r="33" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3044,6 +3032,11 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F2AE6F-A6FC-49AA-8349-0CB4ED8E4023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0DAEE-A0A2-4985-B479-AC2374637DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,31 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1233,6 +1209,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,7 +1245,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,8 +1613,8 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1628,81 +1628,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="63"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="21" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1782,16 +1782,16 @@
       <c r="AQ7" s="18"/>
     </row>
     <row r="8" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -2237,16 +2237,16 @@
       <c r="AQ16" s="18"/>
     </row>
     <row r="17" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -2543,16 +2543,16 @@
       <c r="AQ23" s="18"/>
     </row>
     <row r="24" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -3025,6 +3025,11 @@
     <row r="78" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3032,11 +3037,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0DAEE-A0A2-4985-B479-AC2374637DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5462C4F7-5BFA-4775-B1AB-A107A6EE4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,15 +1203,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,30 +1267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1628,56 +1628,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="63"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1687,22 +1687,22 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="21" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1782,16 +1782,16 @@
       <c r="AQ7" s="18"/>
     </row>
     <row r="8" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -2237,16 +2237,16 @@
       <c r="AQ16" s="18"/>
     </row>
     <row r="17" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -2543,16 +2543,16 @@
       <c r="AQ23" s="18"/>
     </row>
     <row r="24" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -3025,11 +3025,6 @@
     <row r="78" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3037,6 +3032,11 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Tableau de synthèse.xlsx
+++ b/Tableau de synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chmou\OneDrive\Bureau\PORTE FOLIO\Haddad-Samuel.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5462C4F7-5BFA-4775-B1AB-A107A6EE4683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEF944-9397-4EF4-AB06-956C0BE945CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,39 +1203,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1267,6 +1243,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,8 +1613,8 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1628,56 +1628,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="63"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1687,22 +1687,22 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="21" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1782,16 +1782,16 @@
       <c r="AQ7" s="18"/>
     </row>
     <row r="8" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -2237,16 +2237,16 @@
       <c r="AQ16" s="18"/>
     </row>
     <row r="17" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -2543,16 +2543,16 @@
       <c r="AQ23" s="18"/>
     </row>
     <row r="24" spans="1:43" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -3025,6 +3025,11 @@
     <row r="78" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -3032,11 +3037,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
